--- a/words_CZ/4.xlsx
+++ b/words_CZ/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY_progs\Learn_CZ\words_CZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F262E714-D5FD-47A1-A6E3-1A4D6990FD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4CCDCB-5560-42FB-A965-AFF59E6CC4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="2580" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,7 +373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -389,10 +387,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>

--- a/words_CZ/4.xlsx
+++ b/words_CZ/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY_progs\Learn_CZ\words_CZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2258EE10-186A-4027-86C8-BB46BC65F205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B42D436-28C3-4FEB-9596-07837C92D854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="787">
   <si>
     <t>brzo</t>
   </si>
@@ -51,9 +51,6 @@
     <t>doma</t>
   </si>
   <si>
-    <t>fakt</t>
-  </si>
-  <si>
     <t>Je to všechno?</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>vedle</t>
   </si>
   <si>
-    <t>vepřové</t>
-  </si>
-  <si>
     <t>Vezmu si to.</t>
   </si>
   <si>
@@ -168,189 +162,72 @@
     <t>zaplatit</t>
   </si>
   <si>
-    <t>banán</t>
-  </si>
-  <si>
     <t>банан</t>
   </si>
   <si>
     <t>banana</t>
   </si>
   <si>
-    <t>barva</t>
-  </si>
-  <si>
-    <t>колір, фарба</t>
-  </si>
-  <si>
     <t>цвет, краска</t>
   </si>
   <si>
-    <t>colour, paint</t>
-  </si>
-  <si>
-    <t>bota</t>
-  </si>
-  <si>
-    <t>черевик, туфля, чобіт</t>
-  </si>
-  <si>
     <t>ботинок, туфля, сапог</t>
   </si>
   <si>
     <t>shoe, boot</t>
   </si>
   <si>
-    <t>brambora</t>
-  </si>
-  <si>
-    <t>картопля</t>
-  </si>
-  <si>
     <t>картофель, картошка</t>
   </si>
   <si>
     <t>potato</t>
   </si>
   <si>
-    <t>скоро, швидко, рано</t>
-  </si>
-  <si>
     <t>скоро, быстро, рано</t>
   </si>
   <si>
     <t>soon, quickly, early</t>
   </si>
   <si>
-    <t>bunda</t>
-  </si>
-  <si>
-    <t>куртка</t>
-  </si>
-  <si>
     <t>jacket</t>
   </si>
   <si>
     <t>жити, проживати, мешкати</t>
   </si>
   <si>
-    <t>жить, проживать</t>
-  </si>
-  <si>
     <t>to live, to reside</t>
   </si>
   <si>
-    <t>celý</t>
-  </si>
-  <si>
-    <t>цілий, весь</t>
-  </si>
-  <si>
     <t>целый, весь</t>
   </si>
   <si>
-    <t>whole, entire</t>
-  </si>
-  <si>
-    <t>celá</t>
-  </si>
-  <si>
-    <t>ціла, вся</t>
-  </si>
-  <si>
     <t>целая, вся</t>
   </si>
   <si>
-    <t>celé</t>
-  </si>
-  <si>
-    <t>ціле, все</t>
-  </si>
-  <si>
-    <t>целое, все</t>
-  </si>
-  <si>
-    <t>cena</t>
-  </si>
-  <si>
-    <t>ціна</t>
-  </si>
-  <si>
-    <t>цена</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>почуватися, відчувати себе</t>
-  </si>
-  <si>
     <t>чувствовать себя</t>
   </si>
   <si>
-    <t>to feel (well/badly)</t>
-  </si>
-  <si>
-    <t>Що Ви бажаєте?, Що Вам угодно?</t>
-  </si>
-  <si>
-    <t>Что Вы желаете?, Что Вам угодно?</t>
-  </si>
-  <si>
-    <t>What would you like?, What do you wish? (formal)</t>
-  </si>
-  <si>
-    <t>čas</t>
-  </si>
-  <si>
     <t>час, пора</t>
   </si>
   <si>
-    <t>время, час, пора</t>
-  </si>
-  <si>
-    <t>time, hour</t>
-  </si>
-  <si>
     <t>часто</t>
   </si>
   <si>
     <t>often, frequently</t>
   </si>
   <si>
-    <t>černý</t>
-  </si>
-  <si>
     <t>чорний</t>
   </si>
   <si>
-    <t>черный</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
-    <t>černá</t>
-  </si>
-  <si>
     <t>чорна</t>
   </si>
   <si>
-    <t>черная</t>
-  </si>
-  <si>
-    <t>černé</t>
-  </si>
-  <si>
     <t>чорне</t>
   </si>
   <si>
-    <t>черное</t>
-  </si>
-  <si>
-    <t>čerstvý</t>
-  </si>
-  <si>
     <t>свіжий</t>
   </si>
   <si>
@@ -360,27 +237,18 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>čerstvá</t>
-  </si>
-  <si>
     <t>свіжа</t>
   </si>
   <si>
     <t>свежая</t>
   </si>
   <si>
-    <t>čerstvé</t>
-  </si>
-  <si>
     <t>свіже</t>
   </si>
   <si>
     <t>свежее</t>
   </si>
   <si>
-    <t>čtvrtek</t>
-  </si>
-  <si>
     <t>четвер</t>
   </si>
   <si>
@@ -390,129 +258,51 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>ve čtvrtek</t>
-  </si>
-  <si>
-    <t>у четвер</t>
-  </si>
-  <si>
     <t>в четверг</t>
   </si>
   <si>
     <t>on Thursday</t>
   </si>
   <si>
-    <t>den</t>
-  </si>
-  <si>
     <t>день</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>разом, всього, загалом</t>
-  </si>
-  <si>
-    <t>вместе, всего, в сумме</t>
-  </si>
-  <si>
-    <t>together, altogether, in total</t>
-  </si>
-  <si>
-    <t>внизу, унизу</t>
-  </si>
-  <si>
-    <t>внизу</t>
-  </si>
-  <si>
-    <t>downstairs, below</t>
-  </si>
-  <si>
-    <t>вдома</t>
-  </si>
-  <si>
     <t>дома</t>
   </si>
   <si>
     <t>at home</t>
   </si>
   <si>
-    <t>dopoledne</t>
-  </si>
-  <si>
-    <t>до полудня, вранці, дообідній час</t>
-  </si>
-  <si>
-    <t>до полудня, утром</t>
-  </si>
-  <si>
-    <t>in the morning (before noon)</t>
-  </si>
-  <si>
-    <t>факт, дійсно, насправді</t>
-  </si>
-  <si>
-    <t>факт, действительно, реально</t>
-  </si>
-  <si>
     <t>fact, really, actually</t>
   </si>
   <si>
-    <t>hnědý</t>
-  </si>
-  <si>
     <t>коричневий, бурий</t>
   </si>
   <si>
-    <t>коричневый, бурый</t>
-  </si>
-  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>hnědá</t>
-  </si>
-  <si>
     <t>коричнева, бура</t>
   </si>
   <si>
-    <t>коричневая, бурая</t>
-  </si>
-  <si>
-    <t>hnědé</t>
-  </si>
-  <si>
     <t>коричневе, буре</t>
   </si>
   <si>
-    <t>коричневое, бурое</t>
-  </si>
-  <si>
-    <t>hodina</t>
-  </si>
-  <si>
     <t>година, урок</t>
   </si>
   <si>
     <t>час, урок</t>
   </si>
   <si>
-    <t>hour, lesson</t>
-  </si>
-  <si>
-    <t>hovězí</t>
-  </si>
-  <si>
     <t>яловичина, яловичий</t>
   </si>
   <si>
     <t>говядина, говяжий</t>
   </si>
   <si>
-    <t>beef, beef (adj.)</t>
-  </si>
-  <si>
     <t>hypermarket</t>
   </si>
   <si>
@@ -522,33 +312,15 @@
     <t>гипермаркет</t>
   </si>
   <si>
-    <t>v hypermarketu</t>
-  </si>
-  <si>
-    <t>в гіпермаркеті</t>
-  </si>
-  <si>
     <t>в гипермаркете</t>
   </si>
   <si>
     <t>in the hypermarket</t>
   </si>
   <si>
-    <t>informace</t>
-  </si>
-  <si>
-    <t>інформація, відомості</t>
-  </si>
-  <si>
     <t>информация, сведения</t>
   </si>
   <si>
-    <t>information, data</t>
-  </si>
-  <si>
-    <t>jablko</t>
-  </si>
-  <si>
     <t>яблуко</t>
   </si>
   <si>
@@ -561,27 +333,15 @@
     <t>Jakou máš velikost?</t>
   </si>
   <si>
-    <t>Який у тебе розмір?</t>
-  </si>
-  <si>
     <t>Какой у тебя размер?</t>
   </si>
   <si>
-    <t>What size are you? (informal)</t>
-  </si>
-  <si>
     <t>Jakou máte velikost?</t>
   </si>
   <si>
-    <t>Який у Вас розмір?</t>
-  </si>
-  <si>
     <t>Какой у Вас размер?</t>
   </si>
   <si>
-    <t>What size are you? (formal/plural)</t>
-  </si>
-  <si>
     <t>Jakou velikost potřebuješ?</t>
   </si>
   <si>
@@ -591,42 +351,15 @@
     <t>Какой размер тебе нужен?</t>
   </si>
   <si>
-    <t>What size do you need? (informal)</t>
-  </si>
-  <si>
     <t>Jakou velikost potřebujete?</t>
   </si>
   <si>
-    <t>Який розмір Вам потрібен?</t>
-  </si>
-  <si>
     <t>Какой размер Вам нужен?</t>
   </si>
   <si>
-    <t>What size do you need? (formal/plural)</t>
-  </si>
-  <si>
-    <t>Це все?, Більше нічого?</t>
-  </si>
-  <si>
-    <t>Это все?, Больше ничего?</t>
-  </si>
-  <si>
-    <t>Is that all?</t>
-  </si>
-  <si>
     <t>To je jedno.</t>
   </si>
   <si>
-    <t>Це не має значення., Байдуже.</t>
-  </si>
-  <si>
-    <t>Это не важно., Все равно.</t>
-  </si>
-  <si>
-    <t>It doesn't matter., It's all the same.</t>
-  </si>
-  <si>
     <t>jen</t>
   </si>
   <si>
@@ -642,90 +375,36 @@
     <t>jenom</t>
   </si>
   <si>
-    <t>Ще щось?, Щось іще?</t>
-  </si>
-  <si>
-    <t>Еще что-нибудь?</t>
-  </si>
-  <si>
     <t>Anything else?</t>
   </si>
   <si>
-    <t>jídlo</t>
-  </si>
-  <si>
     <t>їжа, страва</t>
   </si>
   <si>
     <t>еда, блюдо</t>
   </si>
   <si>
-    <t>food, meal</t>
-  </si>
-  <si>
     <t>jíst</t>
   </si>
   <si>
-    <t>їсти, споживати</t>
-  </si>
-  <si>
-    <t>есть, кушать, принимать пищу</t>
-  </si>
-  <si>
-    <t>to eat, to consume</t>
-  </si>
-  <si>
-    <t>Jsem překvapený, že...</t>
-  </si>
-  <si>
     <t>Я здивований, що...</t>
   </si>
   <si>
-    <t>Я удивлен, что...</t>
-  </si>
-  <si>
-    <t>I am surprised that... (male speaker)</t>
-  </si>
-  <si>
-    <t>Jsem překvapená, že...</t>
-  </si>
-  <si>
     <t>Я здивована, що...</t>
   </si>
   <si>
     <t>Я удивлена, что...</t>
   </si>
   <si>
-    <t>I am surprised that... (female speaker)</t>
-  </si>
-  <si>
-    <t>kabát</t>
-  </si>
-  <si>
     <t>пальто, піджак</t>
   </si>
   <si>
     <t>пальто, пиджак</t>
   </si>
   <si>
-    <t>coat, jacket</t>
-  </si>
-  <si>
-    <t>kabinka</t>
-  </si>
-  <si>
-    <t>кабінка, примірочна</t>
-  </si>
-  <si>
     <t>кабинка, примерочная</t>
   </si>
   <si>
-    <t>cabin, changing room</t>
-  </si>
-  <si>
-    <t>kalhoty</t>
-  </si>
-  <si>
     <t>штани, брюки</t>
   </si>
   <si>
@@ -744,42 +423,21 @@
     <t>where (to)</t>
   </si>
   <si>
-    <t>každý</t>
-  </si>
-  <si>
-    <t>кожен</t>
-  </si>
-  <si>
     <t>каждый</t>
   </si>
   <si>
-    <t>every, each (masc.)</t>
-  </si>
-  <si>
-    <t>každá</t>
-  </si>
-  <si>
     <t>кожна</t>
   </si>
   <si>
     <t>каждая</t>
   </si>
   <si>
-    <t>every, each (fem.)</t>
-  </si>
-  <si>
-    <t>každé</t>
-  </si>
-  <si>
     <t>кожне</t>
   </si>
   <si>
     <t>каждое</t>
   </si>
   <si>
-    <t>every, each (neut.)</t>
-  </si>
-  <si>
     <t>де</t>
   </si>
   <si>
@@ -789,27 +447,15 @@
     <t>where</t>
   </si>
   <si>
-    <t>knedlík</t>
-  </si>
-  <si>
-    <t>кнедлик (національна чеська страва)</t>
-  </si>
-  <si>
     <t>кнедлик</t>
   </si>
   <si>
-    <t>dumpling (Czech)</t>
-  </si>
-  <si>
     <t>скільки</t>
   </si>
   <si>
     <t>сколько</t>
   </si>
   <si>
-    <t>how many, how much</t>
-  </si>
-  <si>
     <t>Котра година?, Скільки годин?</t>
   </si>
   <si>
@@ -828,9 +474,6 @@
     <t>Сколько стоит тот...?</t>
   </si>
   <si>
-    <t>How much does that one cost? (masc.)</t>
-  </si>
-  <si>
     <t>Kolik stojí ta...?</t>
   </si>
   <si>
@@ -840,9 +483,6 @@
     <t>Сколько стоит та...?</t>
   </si>
   <si>
-    <t>How much does that one cost? (fem.)</t>
-  </si>
-  <si>
     <t>Kolik stojí to...?</t>
   </si>
   <si>
@@ -852,48 +492,21 @@
     <t>Сколько стоит то...?</t>
   </si>
   <si>
-    <t>How much does that one cost? (neut.)</t>
-  </si>
-  <si>
     <t>Скільки це коштує?</t>
   </si>
   <si>
     <t>Сколько это стоит?</t>
   </si>
   <si>
-    <t>How much does it cost?</t>
-  </si>
-  <si>
-    <t>закінчувати, завершувати</t>
-  </si>
-  <si>
-    <t>заканчивать, завершать</t>
-  </si>
-  <si>
-    <t>to finish, to end</t>
-  </si>
-  <si>
-    <t>koruna</t>
-  </si>
-  <si>
     <t>крона (валюта), корона</t>
   </si>
   <si>
     <t>крона, корона</t>
   </si>
   <si>
-    <t>crown, koruna (currency)</t>
-  </si>
-  <si>
-    <t>košile</t>
-  </si>
-  <si>
     <t>сорочка</t>
   </si>
   <si>
-    <t>рубашка</t>
-  </si>
-  <si>
     <t>shirt</t>
   </si>
   <si>
@@ -906,93 +519,36 @@
     <t>to smoke</t>
   </si>
   <si>
-    <t>krém</t>
-  </si>
-  <si>
     <t>крем</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>kurz</t>
-  </si>
-  <si>
-    <t>курс (навчальний, валютний)</t>
-  </si>
-  <si>
     <t>курс</t>
   </si>
   <si>
-    <t>course, rate (e.g., currency)</t>
-  </si>
-  <si>
-    <t>kuře</t>
-  </si>
-  <si>
-    <t>курка, курча</t>
-  </si>
-  <si>
-    <t>курица, цыпленок</t>
-  </si>
-  <si>
     <t>chicken</t>
   </si>
   <si>
-    <t>kuřecí</t>
-  </si>
-  <si>
     <t>курячий</t>
   </si>
   <si>
     <t>куриный</t>
   </si>
   <si>
-    <t>chicken (adj.)</t>
-  </si>
-  <si>
     <t>лежати</t>
   </si>
   <si>
     <t>лежать</t>
   </si>
   <si>
-    <t>to lie, to be situated</t>
-  </si>
-  <si>
-    <t>Я маю радість., Я радий.</t>
-  </si>
-  <si>
-    <t>Я рад., У меня радость.</t>
-  </si>
-  <si>
-    <t>I am happy., I am glad.</t>
-  </si>
-  <si>
-    <t>máslo</t>
-  </si>
-  <si>
-    <t>масло</t>
-  </si>
-  <si>
     <t>butter</t>
   </si>
   <si>
-    <t>minerálka</t>
-  </si>
-  <si>
-    <t>мінеральна вода</t>
-  </si>
-  <si>
-    <t>минералка, минеральная вода</t>
-  </si>
-  <si>
     <t>mineral water</t>
   </si>
   <si>
-    <t>minuta</t>
-  </si>
-  <si>
     <t>хвилина, мінута</t>
   </si>
   <si>
@@ -1005,60 +561,24 @@
     <t>mít na sobě</t>
   </si>
   <si>
-    <t>мати на собі, бути одягненим у</t>
-  </si>
-  <si>
-    <t>иметь на себе, быть одетым в</t>
-  </si>
-  <si>
     <t>to wear, to have on</t>
   </si>
   <si>
     <t>mám na sobě</t>
   </si>
   <si>
-    <t>я ношу, на мені</t>
-  </si>
-  <si>
-    <t>на мне надето, я ношу</t>
-  </si>
-  <si>
-    <t>I am wearing</t>
-  </si>
-  <si>
-    <t>modrý</t>
-  </si>
-  <si>
-    <t>синій, блакитний</t>
-  </si>
-  <si>
     <t>синий, голубой</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
-    <t>modrá</t>
-  </si>
-  <si>
-    <t>синя, блакитна</t>
-  </si>
-  <si>
     <t>синяя, голубая</t>
   </si>
   <si>
-    <t>modré</t>
-  </si>
-  <si>
-    <t>синє, блакитне</t>
-  </si>
-  <si>
     <t>синее, голубое</t>
   </si>
   <si>
-    <t>mýdlo</t>
-  </si>
-  <si>
     <t>мило</t>
   </si>
   <si>
@@ -1068,66 +588,21 @@
     <t>soap</t>
   </si>
   <si>
-    <t>думати, мислити</t>
-  </si>
-  <si>
-    <t>думать, мыслить</t>
-  </si>
-  <si>
-    <t>to think, to believe</t>
-  </si>
-  <si>
-    <t>наверху, угорі</t>
-  </si>
-  <si>
-    <t>наверху, вверху</t>
-  </si>
-  <si>
-    <t>upstairs, above</t>
-  </si>
-  <si>
     <t>ліворуч, зліва</t>
   </si>
   <si>
     <t>налево, слева</t>
   </si>
   <si>
-    <t>to the left, on the left</t>
-  </si>
-  <si>
-    <t>nápad</t>
-  </si>
-  <si>
-    <t>ідея, задум, намір</t>
-  </si>
-  <si>
-    <t>идея, замысел, намерение</t>
-  </si>
-  <si>
-    <t>idea, plan, notion</t>
-  </si>
-  <si>
     <t>праворуч, справа</t>
   </si>
   <si>
     <t>направо, справа</t>
   </si>
   <si>
-    <t>to the right, on the right</t>
-  </si>
-  <si>
-    <t>наприклад</t>
-  </si>
-  <si>
-    <t>например</t>
-  </si>
-  <si>
     <t>for example, for instance</t>
   </si>
   <si>
-    <t>neděle</t>
-  </si>
-  <si>
     <t>неділя</t>
   </si>
   <si>
@@ -1137,27 +612,12 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>v neděli</t>
-  </si>
-  <si>
-    <t>у неділю</t>
-  </si>
-  <si>
     <t>в воскресенье</t>
   </si>
   <si>
     <t>on Sunday</t>
   </si>
   <si>
-    <t>Нічого особливого., Так собі.</t>
-  </si>
-  <si>
-    <t>Ничего особенного., Так себе.</t>
-  </si>
-  <si>
-    <t>Nothing special., Not much.</t>
-  </si>
-  <si>
     <t>nosit</t>
   </si>
   <si>
@@ -1179,36 +639,12 @@
     <t>обедать</t>
   </si>
   <si>
-    <t>to have lunch, to dine</t>
-  </si>
-  <si>
-    <t>obchod</t>
-  </si>
-  <si>
-    <t>магазин, торгівля</t>
-  </si>
-  <si>
     <t>магазин, торговля</t>
   </si>
   <si>
-    <t>shop, store, trade</t>
-  </si>
-  <si>
-    <t>v obchodě</t>
-  </si>
-  <si>
-    <t>у магазині</t>
-  </si>
-  <si>
     <t>в магазине</t>
   </si>
   <si>
-    <t>in the shop/store</t>
-  </si>
-  <si>
-    <t>oblečení</t>
-  </si>
-  <si>
     <t>одяг</t>
   </si>
   <si>
@@ -1218,21 +654,9 @@
     <t>clothes, clothing</t>
   </si>
   <si>
-    <t>odpoledne</t>
-  </si>
-  <si>
-    <t>по обіді, після обіду, вдень</t>
-  </si>
-  <si>
-    <t>после обеда, во второй половине дня</t>
-  </si>
-  <si>
     <t>in the afternoon</t>
   </si>
   <si>
-    <t>okurka</t>
-  </si>
-  <si>
     <t>огірок</t>
   </si>
   <si>
@@ -1242,18 +666,6 @@
     <t>cucumber</t>
   </si>
   <si>
-    <t>справді, дійсно</t>
-  </si>
-  <si>
-    <t>действительно, в самом деле</t>
-  </si>
-  <si>
-    <t>really, truly</t>
-  </si>
-  <si>
-    <t>pasta na zuby</t>
-  </si>
-  <si>
     <t>зубна паста</t>
   </si>
   <si>
@@ -1263,9 +675,6 @@
     <t>toothpaste</t>
   </si>
   <si>
-    <t>pátek</t>
-  </si>
-  <si>
     <t>п'ятниця</t>
   </si>
   <si>
@@ -1275,21 +684,12 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>v pátek</t>
-  </si>
-  <si>
-    <t>у п'ятницю</t>
-  </si>
-  <si>
     <t>в пятницу</t>
   </si>
   <si>
     <t>on Friday</t>
   </si>
   <si>
-    <t>podlaha</t>
-  </si>
-  <si>
     <t>підлога</t>
   </si>
   <si>
@@ -1299,21 +699,9 @@
     <t>floor</t>
   </si>
   <si>
-    <t>pokladna</t>
-  </si>
-  <si>
     <t>каса, скарбниця</t>
   </si>
   <si>
-    <t>касса, сокровищница</t>
-  </si>
-  <si>
-    <t>cash register, checkout, treasury</t>
-  </si>
-  <si>
-    <t>poledne</t>
-  </si>
-  <si>
     <t>полудень</t>
   </si>
   <si>
@@ -1323,21 +711,12 @@
     <t>noon, midday</t>
   </si>
   <si>
-    <t>v poledne</t>
-  </si>
-  <si>
-    <t>о полудні</t>
-  </si>
-  <si>
     <t>в полдень</t>
   </si>
   <si>
     <t>at noon</t>
   </si>
   <si>
-    <t>pondělí</t>
-  </si>
-  <si>
     <t>понеділок</t>
   </si>
   <si>
@@ -1347,12 +726,6 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>v pondělí</t>
-  </si>
-  <si>
-    <t>у понеділок</t>
-  </si>
-  <si>
     <t>в понедельник</t>
   </si>
   <si>
@@ -1362,12 +735,6 @@
     <t>používat</t>
   </si>
   <si>
-    <t>використовувати, застосовувати</t>
-  </si>
-  <si>
-    <t>использовать, применять</t>
-  </si>
-  <si>
     <t>to use</t>
   </si>
   <si>
@@ -1383,36 +750,9 @@
     <t>pozdravovat</t>
   </si>
   <si>
-    <t>передавати привіт, вітати</t>
-  </si>
-  <si>
-    <t>передавать привет, здороваться</t>
-  </si>
-  <si>
-    <t>to greet, to send greetings</t>
-  </si>
-  <si>
-    <t>problém</t>
-  </si>
-  <si>
-    <t>проблема</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>просити</t>
-  </si>
-  <si>
     <t>просить</t>
   </si>
   <si>
-    <t>to ask, to beg</t>
-  </si>
-  <si>
-    <t>překvapení</t>
-  </si>
-  <si>
     <t>сюрприз, несподіванка</t>
   </si>
   <si>
@@ -1425,84 +765,36 @@
     <t>To je (ale) překvapení!</t>
   </si>
   <si>
-    <t>Це (оце так) сюрприз!</t>
-  </si>
-  <si>
-    <t>Это (вот так) сюрприз!</t>
-  </si>
-  <si>
-    <t>That is (quite) a surprise!</t>
-  </si>
-  <si>
-    <t>překvapený</t>
-  </si>
-  <si>
     <t>здивований</t>
   </si>
   <si>
-    <t>удивленный</t>
-  </si>
-  <si>
     <t>surprised (male)</t>
   </si>
   <si>
-    <t>překvapená</t>
-  </si>
-  <si>
     <t>здивована</t>
   </si>
   <si>
-    <t>удивленная</t>
-  </si>
-  <si>
     <t>surprised (female)</t>
   </si>
   <si>
-    <t>radost</t>
-  </si>
-  <si>
-    <t>радість</t>
-  </si>
-  <si>
     <t>радость</t>
   </si>
   <si>
-    <t>joy, happiness</t>
-  </si>
-  <si>
-    <t>ráno</t>
-  </si>
-  <si>
-    <t>ранок, зранку</t>
-  </si>
-  <si>
     <t>утро, утром</t>
   </si>
   <si>
     <t>morning, in the morning</t>
   </si>
   <si>
-    <t>rohlík</t>
-  </si>
-  <si>
     <t>рогалик, булочка</t>
   </si>
   <si>
-    <t>roll, crescent roll</t>
-  </si>
-  <si>
-    <t>розуміти, тямити</t>
-  </si>
-  <si>
     <t>понимать, соображать</t>
   </si>
   <si>
     <t>to understand</t>
   </si>
   <si>
-    <t>ryba</t>
-  </si>
-  <si>
     <t>риба</t>
   </si>
   <si>
@@ -1512,27 +804,18 @@
     <t>fish</t>
   </si>
   <si>
-    <t>rýže</t>
-  </si>
-  <si>
     <t>рис</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>sako</t>
-  </si>
-  <si>
     <t>піджак, жакет</t>
   </si>
   <si>
     <t>пиджак, жакет</t>
   </si>
   <si>
-    <t>jacket, blazer</t>
-  </si>
-  <si>
     <t>сидіти</t>
   </si>
   <si>
@@ -1554,9 +837,6 @@
     <t>to have breakfast</t>
   </si>
   <si>
-    <t>sobota</t>
-  </si>
-  <si>
     <t>субота</t>
   </si>
   <si>
@@ -1566,12 +846,6 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>v sobotu</t>
-  </si>
-  <si>
-    <t>у суботу</t>
-  </si>
-  <si>
     <t>в субботу</t>
   </si>
   <si>
@@ -1593,66 +867,27 @@
     <t>spím</t>
   </si>
   <si>
-    <t>я сплю</t>
-  </si>
-  <si>
-    <t>I sleep</t>
-  </si>
-  <si>
-    <t>spokojený</t>
-  </si>
-  <si>
     <t>задоволений, вдоволений</t>
   </si>
   <si>
-    <t>довольный, удовлетворенный</t>
-  </si>
-  <si>
     <t>satisfied, content (male)</t>
   </si>
   <si>
-    <t>spokojená</t>
-  </si>
-  <si>
     <t>задоволена, вдоволена</t>
   </si>
   <si>
-    <t>довольная, удовлетворенная</t>
-  </si>
-  <si>
     <t>satisfied, content (female)</t>
   </si>
   <si>
-    <t>Jsem spokojený.</t>
-  </si>
-  <si>
-    <t>Я задоволений.</t>
-  </si>
-  <si>
     <t>Я доволен.</t>
   </si>
   <si>
-    <t>I am satisfied. (male speaker)</t>
-  </si>
-  <si>
-    <t>Jsem spokojená.</t>
-  </si>
-  <si>
-    <t>Я задоволена.</t>
-  </si>
-  <si>
     <t>Я довольна.</t>
   </si>
   <si>
-    <t>I am satisfied. (female speaker)</t>
-  </si>
-  <si>
     <t>starat se o</t>
   </si>
   <si>
-    <t>піклуватися про, дбати про</t>
-  </si>
-  <si>
     <t>заботиться о, ухаживать за</t>
   </si>
   <si>
@@ -1677,9 +912,6 @@
     <t>він стоїть, він коштує</t>
   </si>
   <si>
-    <t>он стоит</t>
-  </si>
-  <si>
     <t>he stands, it costs</t>
   </si>
   <si>
@@ -1689,9 +921,6 @@
     <t>вона стоїть, вона коштує</t>
   </si>
   <si>
-    <t>она стоит</t>
-  </si>
-  <si>
     <t>she stands, it costs</t>
   </si>
   <si>
@@ -1701,9 +930,6 @@
     <t>воно стоїть, воно коштує</t>
   </si>
   <si>
-    <t>оно стоит</t>
-  </si>
-  <si>
     <t>it stands, it costs</t>
   </si>
   <si>
@@ -1716,18 +942,6 @@
     <t>It costs ...</t>
   </si>
   <si>
-    <t>страшенно, жахливо, дуже</t>
-  </si>
-  <si>
-    <t>страшно, ужасно, очень</t>
-  </si>
-  <si>
-    <t>terribly, awfully, extremely</t>
-  </si>
-  <si>
-    <t>středa</t>
-  </si>
-  <si>
     <t>середа</t>
   </si>
   <si>
@@ -1737,21 +951,12 @@
     <t>Wednesday</t>
   </si>
   <si>
-    <t>ve středu</t>
-  </si>
-  <si>
-    <t>у середу</t>
-  </si>
-  <si>
     <t>в среду</t>
   </si>
   <si>
     <t>on Wednesday</t>
   </si>
   <si>
-    <t>sukně</t>
-  </si>
-  <si>
     <t>спідниця</t>
   </si>
   <si>
@@ -1767,54 +972,30 @@
     <t>супермаркет</t>
   </si>
   <si>
-    <t>v supermarketu</t>
-  </si>
-  <si>
-    <t>у супермаркеті</t>
-  </si>
-  <si>
     <t>в супермаркете</t>
   </si>
   <si>
     <t>in the supermarket</t>
   </si>
   <si>
-    <t>světlo</t>
-  </si>
-  <si>
-    <t>світло, лампа</t>
-  </si>
-  <si>
     <t>свет, лампа</t>
   </si>
   <si>
     <t>light, lamp</t>
   </si>
   <si>
-    <t>šampon</t>
-  </si>
-  <si>
     <t>шампунь</t>
   </si>
   <si>
     <t>shampoo</t>
   </si>
   <si>
-    <t>škola</t>
-  </si>
-  <si>
     <t>школа</t>
   </si>
   <si>
     <t>school</t>
   </si>
   <si>
-    <t>ve škole</t>
-  </si>
-  <si>
-    <t>у школі</t>
-  </si>
-  <si>
     <t>в школе</t>
   </si>
   <si>
@@ -1824,39 +1005,12 @@
     <t>těšit se na</t>
   </si>
   <si>
-    <t>чекати з нетерпінням на, радіти</t>
-  </si>
-  <si>
-    <t>ждать с нетерпением, радоваться</t>
-  </si>
-  <si>
     <t>to look forward to</t>
   </si>
   <si>
-    <t>triko</t>
-  </si>
-  <si>
     <t>футболка, майка</t>
   </si>
   <si>
-    <t>T-shirt, shirt</t>
-  </si>
-  <si>
-    <t>tričko</t>
-  </si>
-  <si>
-    <t>футболочка, маєчка</t>
-  </si>
-  <si>
-    <t>футболочка, майка</t>
-  </si>
-  <si>
-    <t>T-shirt, shirt (diminutive)</t>
-  </si>
-  <si>
-    <t>týden</t>
-  </si>
-  <si>
     <t>тиждень</t>
   </si>
   <si>
@@ -1872,96 +1026,33 @@
     <t>навчати, викладати</t>
   </si>
   <si>
-    <t>учить, преподавать</t>
-  </si>
-  <si>
     <t>to teach</t>
   </si>
   <si>
     <t>učit se</t>
   </si>
   <si>
-    <t>вчитися, вивчати</t>
-  </si>
-  <si>
     <t>учиться, изучать</t>
   </si>
   <si>
-    <t>to study, to learn</t>
-  </si>
-  <si>
     <t>uklízet</t>
   </si>
   <si>
     <t>прибирати</t>
   </si>
   <si>
-    <t>убирать</t>
-  </si>
-  <si>
-    <t>to clean, to tidy up</t>
-  </si>
-  <si>
     <t>umět</t>
   </si>
   <si>
-    <t>вміти, знати (як)</t>
-  </si>
-  <si>
-    <t>уметь, знать</t>
-  </si>
-  <si>
-    <t>to be able to, to know how to</t>
-  </si>
-  <si>
-    <t>unavený</t>
-  </si>
-  <si>
-    <t>втомлений</t>
-  </si>
-  <si>
-    <t>уставший, утомленный</t>
-  </si>
-  <si>
     <t>tired (male)</t>
   </si>
   <si>
-    <t>unavená</t>
-  </si>
-  <si>
-    <t>втомлена</t>
-  </si>
-  <si>
-    <t>уставшая, утомленная</t>
-  </si>
-  <si>
     <t>tired (female)</t>
   </si>
   <si>
-    <t>unavené</t>
-  </si>
-  <si>
-    <t>втомлене</t>
-  </si>
-  <si>
-    <t>уставшее, утомленное</t>
-  </si>
-  <si>
-    <t>tired (neut.)</t>
-  </si>
-  <si>
-    <t>посередині, в центрі</t>
-  </si>
-  <si>
     <t>посредине, в центре</t>
   </si>
   <si>
-    <t>in the middle, in the centre</t>
-  </si>
-  <si>
-    <t>úterý</t>
-  </si>
-  <si>
     <t>вівторок</t>
   </si>
   <si>
@@ -1971,12 +1062,6 @@
     <t>Tuesday</t>
   </si>
   <si>
-    <t>v úterý</t>
-  </si>
-  <si>
-    <t>у вівторок</t>
-  </si>
-  <si>
     <t>во вторник</t>
   </si>
   <si>
@@ -1995,39 +1080,18 @@
     <t>о котрій годині, коли</t>
   </si>
   <si>
-    <t>во сколько часов</t>
-  </si>
-  <si>
     <t>at what time</t>
   </si>
   <si>
     <t>vařit</t>
   </si>
   <si>
-    <t>варити, готувати</t>
-  </si>
-  <si>
-    <t>варить, готовить</t>
-  </si>
-  <si>
     <t>to cook, to boil</t>
   </si>
   <si>
-    <t>серйозно, справді</t>
-  </si>
-  <si>
-    <t>серьезно, в самом деле</t>
-  </si>
-  <si>
     <t>seriously, really</t>
   </si>
   <si>
-    <t>večer</t>
-  </si>
-  <si>
-    <t>вечір, ввечері</t>
-  </si>
-  <si>
     <t>вечер, вечером</t>
   </si>
   <si>
@@ -2043,9 +1107,6 @@
     <t>ужинать</t>
   </si>
   <si>
-    <t>to have dinner, to sup</t>
-  </si>
-  <si>
     <t>vědět</t>
   </si>
   <si>
@@ -2061,9 +1122,6 @@
     <t>vím</t>
   </si>
   <si>
-    <t>я знаю</t>
-  </si>
-  <si>
     <t>I know</t>
   </si>
   <si>
@@ -2076,9 +1134,6 @@
     <t>next to, beside</t>
   </si>
   <si>
-    <t>velikost</t>
-  </si>
-  <si>
     <t>розмір</t>
   </si>
   <si>
@@ -2088,301 +1143,1249 @@
     <t>size</t>
   </si>
   <si>
-    <t>свинина, свиняче</t>
-  </si>
-  <si>
     <t>свинина, свиное</t>
   </si>
   <si>
-    <t>pork, pork (adj.)</t>
-  </si>
-  <si>
-    <t>vepřový</t>
-  </si>
-  <si>
     <t>свинячий</t>
   </si>
   <si>
     <t>свиной</t>
   </si>
   <si>
-    <t>pork (adj.)</t>
-  </si>
-  <si>
-    <t>vepřová</t>
-  </si>
-  <si>
     <t>свиняча</t>
   </si>
   <si>
     <t>свиная</t>
   </si>
   <si>
+    <t>vidět</t>
+  </si>
+  <si>
+    <t>бачити</t>
+  </si>
+  <si>
+    <t>видеть</t>
+  </si>
+  <si>
+    <t>to see</t>
+  </si>
+  <si>
+    <t>вихідні</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>на выходных</t>
+  </si>
+  <si>
+    <t>волосся</t>
+  </si>
+  <si>
+    <t>волосы</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>спереду, попереду</t>
+  </si>
+  <si>
+    <t>спереди, впереди</t>
+  </si>
+  <si>
+    <t>To je všechno.</t>
+  </si>
+  <si>
+    <t>vyslovovat</t>
+  </si>
+  <si>
+    <t>вимовляти</t>
+  </si>
+  <si>
+    <t>to pronounce</t>
+  </si>
+  <si>
+    <t>ззаду, позаду</t>
+  </si>
+  <si>
+    <t>сзади, позади</t>
+  </si>
+  <si>
+    <t>to begin, to start</t>
+  </si>
+  <si>
+    <t>клієнт, покупець</t>
+  </si>
+  <si>
+    <t>клиент, покупатель</t>
+  </si>
+  <si>
+    <t>customer (male)</t>
+  </si>
+  <si>
+    <t>клієнтка, покупчиня</t>
+  </si>
+  <si>
+    <t>клиентка, покупательница</t>
+  </si>
+  <si>
+    <t>customer (female)</t>
+  </si>
+  <si>
+    <t>to pay</t>
+  </si>
+  <si>
+    <t>зелений</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>зелена</t>
+  </si>
+  <si>
+    <t>зелене</t>
+  </si>
+  <si>
+    <t>zkusit</t>
+  </si>
+  <si>
+    <t>жовтий</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>жовта</t>
+  </si>
+  <si>
+    <t>жовте</t>
+  </si>
+  <si>
+    <t>внизу, унизу, знизу</t>
+  </si>
+  <si>
+    <t>Який у тебе розмір?, Який в тебе розмір?</t>
+  </si>
+  <si>
+    <t>Який у Вас розмір?, Який у вас розмір?, Який в вас розмір?</t>
+  </si>
+  <si>
+    <t>Який розмір Вам потрібен?, Який розмір вам потрібен?</t>
+  </si>
+  <si>
+    <t>колір, фарба, барва</t>
+  </si>
+  <si>
+    <t>color, paint</t>
+  </si>
+  <si>
+    <t>черевик, туфля, чобіт, кросівок, ботинок, туфель</t>
+  </si>
+  <si>
+    <t>картопля, картоплина, бульба</t>
+  </si>
+  <si>
+    <t>скоро, швидко, рано, незабаром</t>
+  </si>
+  <si>
+    <t>куртка, курточка, вітровка</t>
+  </si>
+  <si>
+    <t>куртка, ветровка</t>
+  </si>
+  <si>
+    <t>жить, проживать, обитать</t>
+  </si>
+  <si>
+    <t>цілий, весь, увесь</t>
+  </si>
+  <si>
+    <t>whole, entire, all</t>
+  </si>
+  <si>
+    <t>ціла, вся, уся</t>
+  </si>
+  <si>
+    <t>ціле, все, усе</t>
+  </si>
+  <si>
+    <t>целое, всё</t>
+  </si>
+  <si>
+    <t>ціна, вартість</t>
+  </si>
+  <si>
+    <t>цена, стоимость</t>
+  </si>
+  <si>
+    <t>price, cost</t>
+  </si>
+  <si>
+    <t>почуватися, відчувати себе, почувати себе</t>
+  </si>
+  <si>
+    <t>to feel</t>
+  </si>
+  <si>
+    <t>Що Ви бажаєте?, Що Вам завгодно?, Що ви бажаєте?, Що вам завгодно?, Що бажаєте?, Чого бажаєте?</t>
+  </si>
+  <si>
+    <t>Что Вы желаете?, Что бы Вы хотели?, Чего изволите?</t>
+  </si>
+  <si>
+    <t>What would you like?, How can I help you?, What do you wish?</t>
+  </si>
+  <si>
+    <t>время, пора</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>чёрный</t>
+  </si>
+  <si>
+    <t>чёрная</t>
+  </si>
+  <si>
+    <t>чёрное</t>
+  </si>
+  <si>
+    <t>у четвер, в четвер</t>
+  </si>
+  <si>
+    <t>разом, всього, загалом, у сумі, сумарно</t>
+  </si>
+  <si>
+    <t>вместе, всего, итого</t>
+  </si>
+  <si>
+    <t>together, in total, all told</t>
+  </si>
+  <si>
+    <t>внизу, снизу</t>
+  </si>
+  <si>
+    <t>downstairs, below, down</t>
+  </si>
+  <si>
+    <t>вдома, дома</t>
+  </si>
+  <si>
+    <t>до полудня, вранці, дообідній час, до обіду</t>
+  </si>
+  <si>
+    <t>до полудня, в первой половине дня</t>
+  </si>
+  <si>
+    <t>in the morning, before noon</t>
+  </si>
+  <si>
+    <t>факт, дійсно, насправді, справді</t>
+  </si>
+  <si>
+    <t>факт, действительно, на самом деле</t>
+  </si>
+  <si>
+    <t>коричневый, карий</t>
+  </si>
+  <si>
+    <t>коричневая, каряя</t>
+  </si>
+  <si>
+    <t>коричневое, карее</t>
+  </si>
+  <si>
+    <t>hour, lesson, class</t>
+  </si>
+  <si>
+    <t>beef (noun), beef (adj)</t>
+  </si>
+  <si>
+    <t>в гіпермаркеті, у гіпермаркеті</t>
+  </si>
+  <si>
+    <t>інформація, відомості, дані</t>
+  </si>
+  <si>
+    <t>information, info</t>
+  </si>
+  <si>
+    <t>What size are you?</t>
+  </si>
+  <si>
+    <t>What size are you? (formal)</t>
+  </si>
+  <si>
+    <t>What size do you need?</t>
+  </si>
+  <si>
+    <t>What size do you need? (formal)</t>
+  </si>
+  <si>
+    <t>Це все?, Більше нічого?, Все?</t>
+  </si>
+  <si>
+    <t>Это всё?</t>
+  </si>
+  <si>
+    <t>Is that all?, Is that everything?</t>
+  </si>
+  <si>
+    <t>Це не має значення., Байдуже., Все одно., Мені все одно., Неважливо.</t>
+  </si>
+  <si>
+    <t>Это не имеет значения., Всё равно., Без разницы., Неважно.</t>
+  </si>
+  <si>
+    <t>It doesn't matter., I don't mind., It's all the same., Whatever.</t>
+  </si>
+  <si>
+    <t>лише, тільки, всього лиш, всього-на-всього</t>
+  </si>
+  <si>
+    <t>Ще щось?, Щось іще?, Щось ще?, Бажаєте ще щось?</t>
+  </si>
+  <si>
+    <t>Что-нибудь ещё?, Ещё что-то?</t>
+  </si>
+  <si>
+    <t>food, meal, dish</t>
+  </si>
+  <si>
+    <t>їсти, споживати, харчуватися</t>
+  </si>
+  <si>
+    <t>есть, кушать, питаться</t>
+  </si>
+  <si>
+    <t>to eat</t>
+  </si>
+  <si>
+    <t>Я удивлён, что...</t>
+  </si>
+  <si>
+    <t>I'm surprised that... (male)</t>
+  </si>
+  <si>
+    <t>I'm surprised that... (female)</t>
+  </si>
+  <si>
+    <t>coat, (man's) jacket</t>
+  </si>
+  <si>
+    <t>кабінка, примірочна, кабінка для примірки</t>
+  </si>
+  <si>
+    <t>fitting room, changing room</t>
+  </si>
+  <si>
+    <t>кожен, кожний</t>
+  </si>
+  <si>
+    <t>each, every</t>
+  </si>
+  <si>
+    <t>кнедлик, клёцка</t>
+  </si>
+  <si>
+    <t>dumpling (Czech-style)</t>
+  </si>
+  <si>
+    <t>how much, how many</t>
+  </si>
+  <si>
+    <t>How much does the... cost?</t>
+  </si>
+  <si>
+    <t>How much is it?, How much does it cost?</t>
+  </si>
+  <si>
+    <t>закінчувати, завершувати, кінчати</t>
+  </si>
+  <si>
+    <t>заканчивать, завершать, кончать</t>
+  </si>
+  <si>
+    <t>to end, to finish</t>
+  </si>
+  <si>
+    <t>crown (currency), crown (royal)</t>
+  </si>
+  <si>
+    <t>рубашка, сорочка</t>
+  </si>
+  <si>
+    <t>course, exchange rate</t>
+  </si>
+  <si>
+    <t>курка, курча, курчатко</t>
+  </si>
+  <si>
+    <t>курица, цыплёнок</t>
+  </si>
+  <si>
+    <t>chicken (adj)</t>
+  </si>
+  <si>
+    <t>to lie (down)</t>
+  </si>
+  <si>
+    <t>Я маю радість., Я радий., Я радію., Мені радісно.</t>
+  </si>
+  <si>
+    <t>Я рад., Я рада., Мне радостно.</t>
+  </si>
+  <si>
+    <t>I'm happy., I'm glad.</t>
+  </si>
+  <si>
+    <t>масло, вершкове масло</t>
+  </si>
+  <si>
+    <t>(сливочное) масло</t>
+  </si>
+  <si>
+    <t>мінеральна вода, мінералка</t>
+  </si>
+  <si>
+    <t>минеральная вода, минералка</t>
+  </si>
+  <si>
+    <t>мати на собі, бути одягненим у, бути одягненою у</t>
+  </si>
+  <si>
+    <t>носить (одежду), быть одетым в</t>
+  </si>
+  <si>
+    <t>я ношу, на мені, маю на собі, я одягнений в, я одягнена в</t>
+  </si>
+  <si>
+    <t>я ношу, на мне (надето)</t>
+  </si>
+  <si>
+    <t>I'm wearing, I have on</t>
+  </si>
+  <si>
+    <t>синій, блакитний, голубий</t>
+  </si>
+  <si>
+    <t>синя, блакитна, голуба</t>
+  </si>
+  <si>
+    <t>синє, блакитне, голубе</t>
+  </si>
+  <si>
+    <t>думати, мислити, гадати, вважати</t>
+  </si>
+  <si>
+    <t>думать, мыслить, считать</t>
+  </si>
+  <si>
+    <t>to think</t>
+  </si>
+  <si>
+    <t>наверху, угорі, вгорі, зверху</t>
+  </si>
+  <si>
+    <t>наверху, вверху, сверху</t>
+  </si>
+  <si>
+    <t>up, upstairs, above</t>
+  </si>
+  <si>
+    <t>(to the) left</t>
+  </si>
+  <si>
+    <t>ідея, задум, намір, думка</t>
+  </si>
+  <si>
+    <t>идея, мысль, замысел</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>(to the) right</t>
+  </si>
+  <si>
+    <t>наприклад, до прикладу</t>
+  </si>
+  <si>
+    <t>например, к примеру</t>
+  </si>
+  <si>
+    <t>у неділю, в неділю</t>
+  </si>
+  <si>
+    <t>Нічого особливого., Так собі., Не дуже.</t>
+  </si>
+  <si>
+    <t>Ничего особенного., Так себе., Не очень.</t>
+  </si>
+  <si>
+    <t>Nothing special., So-so., Not much.</t>
+  </si>
+  <si>
+    <t>to have lunch, to eat lunch</t>
+  </si>
+  <si>
+    <t>магазин, торгівля, крамниця</t>
+  </si>
+  <si>
+    <t>shop, store, business</t>
+  </si>
+  <si>
+    <t>у магазині, в магазині, у крамниці, в крамниці</t>
+  </si>
+  <si>
+    <t>in the shop, in the store</t>
+  </si>
+  <si>
+    <t>по обіді, після обіду, вдень, після полудня</t>
+  </si>
+  <si>
+    <t>после обеда, после полудня, днём</t>
+  </si>
+  <si>
+    <t>справді, дійсно, насправді</t>
+  </si>
+  <si>
+    <t>действительно, на самом деле, правда</t>
+  </si>
+  <si>
+    <t>really, truly, actually</t>
+  </si>
+  <si>
+    <t>у п'ятницю, в п'ятницю</t>
+  </si>
+  <si>
+    <t>касса</t>
+  </si>
+  <si>
+    <t>cash desk, checkout</t>
+  </si>
+  <si>
+    <t>о полудні, в полудень</t>
+  </si>
+  <si>
+    <t>у понеділок, в понеділок</t>
+  </si>
+  <si>
+    <t>використовувати, застосовувати, користуватися, вживати</t>
+  </si>
+  <si>
+    <t>использовать, применять, пользоваться</t>
+  </si>
+  <si>
+    <t>передавати привіт, вітати, передавати вітання</t>
+  </si>
+  <si>
+    <t>передавать привет, приветствовать</t>
+  </si>
+  <si>
+    <t>to send greetings, to say hello to</t>
+  </si>
+  <si>
+    <t>проблема, складність</t>
+  </si>
+  <si>
+    <t>проблема, сложность</t>
+  </si>
+  <si>
+    <t>problem, issue, trouble</t>
+  </si>
+  <si>
+    <t>просити, благати</t>
+  </si>
+  <si>
+    <t>to ask (for), to request</t>
+  </si>
+  <si>
+    <t>Це сюрприз!, Оце так сюрприз!, Який сюрприз!</t>
+  </si>
+  <si>
+    <t>Вот это сюрприз!, Какая неожиданность!</t>
+  </si>
+  <si>
+    <t>What a surprise!</t>
+  </si>
+  <si>
+    <t>удивлённый</t>
+  </si>
+  <si>
+    <t>удивлённая</t>
+  </si>
+  <si>
+    <t>радість, втіха</t>
+  </si>
+  <si>
+    <t>joy, happiness, pleasure</t>
+  </si>
+  <si>
+    <t>ранок, зранку, вранці</t>
+  </si>
+  <si>
+    <t>roll, bread roll</t>
+  </si>
+  <si>
+    <t>розуміти, тямити, усвідомлювати</t>
+  </si>
+  <si>
+    <t>blazer, (suit) jacket</t>
+  </si>
+  <si>
+    <t>у суботу, в суботу</t>
+  </si>
+  <si>
+    <t>я сплю, сплю</t>
+  </si>
+  <si>
+    <t>I sleep, I'm sleeping</t>
+  </si>
+  <si>
+    <t>довольный, удовлетворённый</t>
+  </si>
+  <si>
+    <t>довольная, удовлетворённая</t>
+  </si>
+  <si>
+    <t>Я задоволений., Я вдоволений.</t>
+  </si>
+  <si>
+    <t>I'm satisfied. (male)</t>
+  </si>
+  <si>
+    <t>Я задоволена., Я вдоволена.</t>
+  </si>
+  <si>
+    <t>I'm satisfied. (female)</t>
+  </si>
+  <si>
+    <t>піклуватися про, дбати про, турбуватися про, доглядати за</t>
+  </si>
+  <si>
+    <t>он стоит, он стоит</t>
+  </si>
+  <si>
+    <t>она стоит, она стоит</t>
+  </si>
+  <si>
+    <t>оно стоит, оно стоит</t>
+  </si>
+  <si>
+    <t>страшенно, жахливо, дуже, неймовірно</t>
+  </si>
+  <si>
+    <t>ужасно, страшно, очень</t>
+  </si>
+  <si>
+    <t>terribly, awfully, very</t>
+  </si>
+  <si>
+    <t>у середу, в середу</t>
+  </si>
+  <si>
+    <t>у супермаркеті, в супермаркеті</t>
+  </si>
+  <si>
+    <t>світло, лампа, освітлення</t>
+  </si>
+  <si>
+    <t>у школі, в школі</t>
+  </si>
+  <si>
+    <t>чекати з нетерпінням на, радіти, з нетерпінням чекати, тішитися</t>
+  </si>
+  <si>
+    <t>ждать с нетерпением, радоваться (предстоящему)</t>
+  </si>
+  <si>
+    <t>t-shirt</t>
+  </si>
+  <si>
+    <t>футболочка, маєчка, футболка, майка</t>
+  </si>
+  <si>
+    <t>футболка, маечка</t>
+  </si>
+  <si>
+    <t>учить, обучать, преподавать</t>
+  </si>
+  <si>
+    <t>вчитися, вивчати, навчатися</t>
+  </si>
+  <si>
+    <t>to learn, to study</t>
+  </si>
+  <si>
+    <t>убирать, прибирать</t>
+  </si>
+  <si>
+    <t>to clean (up), to tidy (up)</t>
+  </si>
+  <si>
+    <t>вміти, знати як, могти</t>
+  </si>
+  <si>
+    <t>уметь, знать (как)</t>
+  </si>
+  <si>
+    <t>to know how to, can</t>
+  </si>
+  <si>
+    <t>втомлений, змучений</t>
+  </si>
+  <si>
+    <t>уставший, утомлённый</t>
+  </si>
+  <si>
+    <t>втомлена, змучена</t>
+  </si>
+  <si>
+    <t>уставшая, утомлённая</t>
+  </si>
+  <si>
+    <t>втомлене, змучене</t>
+  </si>
+  <si>
+    <t>уставшее, утомлённое</t>
+  </si>
+  <si>
+    <t>tired (neuter)</t>
+  </si>
+  <si>
+    <t>посередині, в центрі, у центрі</t>
+  </si>
+  <si>
+    <t>in the middle, in the center</t>
+  </si>
+  <si>
+    <t>у вівторок, в вівторок</t>
+  </si>
+  <si>
+    <t>во сколько (часов), когда</t>
+  </si>
+  <si>
+    <t>варити, готувати, готувати їжу</t>
+  </si>
+  <si>
+    <t>варить, готовить (еду)</t>
+  </si>
+  <si>
+    <t>серйозно, справді, дійсно</t>
+  </si>
+  <si>
+    <t>серьёзно, действительно</t>
+  </si>
+  <si>
+    <t>вечір, ввечері, увечері</t>
+  </si>
+  <si>
+    <t>to have dinner, to eat dinner</t>
+  </si>
+  <si>
+    <t>я знаю, знаю</t>
+  </si>
+  <si>
+    <t>свинина, свиняче, свиняче м'ясо</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>pork (adj)</t>
+  </si>
+  <si>
+    <t>Я візьму це., Я куплю це., Я це візьму., Я це куплю., Беру це.</t>
+  </si>
+  <si>
+    <t>Я возьму это., Я куплю это., Я это возьму.</t>
+  </si>
+  <si>
+    <t>I'll take it., I'll buy it.</t>
+  </si>
+  <si>
+    <t>выходные, уик-энд</t>
+  </si>
+  <si>
+    <t>на вихідних, у вихідні</t>
+  </si>
+  <si>
+    <t>at the weekend, on the weekend</t>
+  </si>
+  <si>
+    <t>in front, at the front</t>
+  </si>
+  <si>
+    <t>вставати, прокидатися</t>
+  </si>
+  <si>
+    <t>вставать, просыпаться</t>
+  </si>
+  <si>
+    <t>to get up, to wake up</t>
+  </si>
+  <si>
+    <t>Це все., Все.</t>
+  </si>
+  <si>
+    <t>Это всё., Всё.</t>
+  </si>
+  <si>
+    <t>That's all., That's everything.</t>
+  </si>
+  <si>
+    <t>произносить, выговаривать</t>
+  </si>
+  <si>
+    <t>навчання, уроки, заняття</t>
+  </si>
+  <si>
+    <t>учёба, уроки, занятия</t>
+  </si>
+  <si>
+    <t>classes, lessons, school</t>
+  </si>
+  <si>
+    <t>at the back, behind</t>
+  </si>
+  <si>
+    <t>починати, розпочинати</t>
+  </si>
+  <si>
+    <t>начинать, начинаться</t>
+  </si>
+  <si>
+    <t>заплатити, сплатити, оплатити, розрахуватися</t>
+  </si>
+  <si>
+    <t>заплатить, оплатить, рассчитаться</t>
+  </si>
+  <si>
+    <t>зелёный</t>
+  </si>
+  <si>
+    <t>зелёная</t>
+  </si>
+  <si>
+    <t>зелёное</t>
+  </si>
+  <si>
+    <t>іспит, спроба, екзамен, тест, випробування</t>
+  </si>
+  <si>
+    <t>экзамен, попытка, проба, испытание</t>
+  </si>
+  <si>
+    <t>exam, test, rehearsal, attempt</t>
+  </si>
+  <si>
+    <t>спробувати, випробувати, приміряти</t>
+  </si>
+  <si>
+    <t>попробовать, примерить, испытать</t>
+  </si>
+  <si>
+    <t>to try, to try on, to attempt</t>
+  </si>
+  <si>
+    <t>повідомлення, новина, звістка</t>
+  </si>
+  <si>
+    <t>сообщение, новость, весть</t>
+  </si>
+  <si>
+    <t>message, news, report</t>
+  </si>
+  <si>
+    <t>жёлтый</t>
+  </si>
+  <si>
+    <t>жёлтая</t>
+  </si>
+  <si>
+    <t>жёлтое</t>
+  </si>
+  <si>
+    <t>(M) banán</t>
+  </si>
+  <si>
+    <t>(Ž) barva</t>
+  </si>
+  <si>
+    <t>(Ž) bota</t>
+  </si>
+  <si>
+    <t>(Ž) brambora</t>
+  </si>
+  <si>
+    <t>(Ž) bunda</t>
+  </si>
+  <si>
+    <t>(M) celý</t>
+  </si>
+  <si>
+    <t>(Ž) celá</t>
+  </si>
+  <si>
+    <t>(S) celé</t>
+  </si>
+  <si>
+    <t>(Ž) cena</t>
+  </si>
+  <si>
+    <t>(M) čas</t>
+  </si>
+  <si>
+    <t>(M) černý</t>
+  </si>
+  <si>
+    <t>(Ž) černá</t>
+  </si>
+  <si>
+    <t>(S) černé</t>
+  </si>
+  <si>
+    <t>(M) čerstvý</t>
+  </si>
+  <si>
+    <t>(Ž) čerstvá</t>
+  </si>
+  <si>
+    <t>(S) čerstvé</t>
+  </si>
+  <si>
+    <t>(M) čtvrtek</t>
+  </si>
+  <si>
+    <t>ve (M) čtvrtek</t>
+  </si>
+  <si>
+    <t>(M) den</t>
+  </si>
+  <si>
+    <t>(S) dopoledne</t>
+  </si>
+  <si>
+    <t>(M) fakt</t>
+  </si>
+  <si>
+    <t>(M) hnědý</t>
+  </si>
+  <si>
+    <t>(Ž) hnědá</t>
+  </si>
+  <si>
+    <t>(S) hnědé</t>
+  </si>
+  <si>
+    <t>(Ž) hodina</t>
+  </si>
+  <si>
+    <t>(S) hovězí</t>
+  </si>
+  <si>
+    <t>(M) hypermarket</t>
+  </si>
+  <si>
+    <t>v (M) hypermarketu</t>
+  </si>
+  <si>
+    <t>(Ž) informace</t>
+  </si>
+  <si>
+    <t>(S) jablko</t>
+  </si>
+  <si>
+    <t>(S) jídlo</t>
+  </si>
+  <si>
+    <t>Jsem (M) překvapený, že...</t>
+  </si>
+  <si>
+    <t>Jsem (Ž) překvapená, že...</t>
+  </si>
+  <si>
+    <t>(M) kabát</t>
+  </si>
+  <si>
+    <t>(Ž) kabinka</t>
+  </si>
+  <si>
+    <t>(Ž-Pl) kalhoty</t>
+  </si>
+  <si>
+    <t>(M) každý</t>
+  </si>
+  <si>
+    <t>(Ž) každá</t>
+  </si>
+  <si>
+    <t>(S) každé</t>
+  </si>
+  <si>
+    <t>(M) knedlík</t>
+  </si>
+  <si>
+    <t>(Ž) koruna</t>
+  </si>
+  <si>
+    <t>(Ž) košile</t>
+  </si>
+  <si>
+    <t>(M) krém</t>
+  </si>
+  <si>
+    <t>(M) kurz</t>
+  </si>
+  <si>
+    <t>(S) kuře</t>
+  </si>
+  <si>
+    <t>(S) kuřecí</t>
+  </si>
+  <si>
+    <t>(S) máslo</t>
+  </si>
+  <si>
+    <t>(Ž) minerálka</t>
+  </si>
+  <si>
+    <t>(Ž) minuta</t>
+  </si>
+  <si>
+    <t>(M) modrý</t>
+  </si>
+  <si>
+    <t>(Ž) modrá</t>
+  </si>
+  <si>
+    <t>(S) modré</t>
+  </si>
+  <si>
+    <t>(S) mýdlo</t>
+  </si>
+  <si>
+    <t>(M) nápad</t>
+  </si>
+  <si>
+    <t>(Ž) neděle</t>
+  </si>
+  <si>
+    <t>v (Ž) neděli</t>
+  </si>
+  <si>
+    <t>(M) obchod</t>
+  </si>
+  <si>
+    <t>v (M) obchodě</t>
+  </si>
+  <si>
+    <t>(S) oblečení</t>
+  </si>
+  <si>
+    <t>(S) odpoledne</t>
+  </si>
+  <si>
+    <t>(Ž) okurka</t>
+  </si>
+  <si>
+    <t>(Ž) pasta na zuby</t>
+  </si>
+  <si>
+    <t>(M) pátek</t>
+  </si>
+  <si>
+    <t>v (M) pátek</t>
+  </si>
+  <si>
+    <t>(Ž) podlaha</t>
+  </si>
+  <si>
+    <t>(Ž) pokladna</t>
+  </si>
+  <si>
+    <t>(S) poledne</t>
+  </si>
+  <si>
+    <t>v (S) poledne</t>
+  </si>
+  <si>
+    <t>(S) pondělí</t>
+  </si>
+  <si>
+    <t>v (S) pondělí</t>
+  </si>
+  <si>
+    <t>(M) problém</t>
+  </si>
+  <si>
+    <t>(S) překvapení</t>
+  </si>
+  <si>
+    <t>(M) překvapený</t>
+  </si>
+  <si>
+    <t>(Ž) překvapená</t>
+  </si>
+  <si>
+    <t>(Ž) radost</t>
+  </si>
+  <si>
+    <t>(S) ráno</t>
+  </si>
+  <si>
+    <t>(M) rohlík</t>
+  </si>
+  <si>
+    <t>(Ž) ryba</t>
+  </si>
+  <si>
+    <t>(Ž) rýže</t>
+  </si>
+  <si>
+    <t>(S) sako</t>
+  </si>
+  <si>
+    <t>(Ž) sobota</t>
+  </si>
+  <si>
+    <t>v (Ž) sobotu</t>
+  </si>
+  <si>
+    <t>(M) spokojený</t>
+  </si>
+  <si>
+    <t>(Ž) spokojená</t>
+  </si>
+  <si>
+    <t>Jsem (M) spokojený.</t>
+  </si>
+  <si>
+    <t>Jsem (Ž) spokojená.</t>
+  </si>
+  <si>
+    <t>(Ž) středa</t>
+  </si>
+  <si>
+    <t>ve (Ž) středu</t>
+  </si>
+  <si>
+    <t>(Ž) sukně</t>
+  </si>
+  <si>
+    <t>(M) supermarket</t>
+  </si>
+  <si>
+    <t>v (M) supermarketu</t>
+  </si>
+  <si>
+    <t>(S) světlo</t>
+  </si>
+  <si>
+    <t>(M) šampon</t>
+  </si>
+  <si>
+    <t>(Ž) škola</t>
+  </si>
+  <si>
+    <t>ve (Ž) škole</t>
+  </si>
+  <si>
+    <t>(S) triko</t>
+  </si>
+  <si>
+    <t>(S) tričko</t>
+  </si>
+  <si>
+    <t>(M) týden</t>
+  </si>
+  <si>
+    <t>(M) unavený</t>
+  </si>
+  <si>
+    <t>(Ž) unavená</t>
+  </si>
+  <si>
+    <t>(S) unavené</t>
+  </si>
+  <si>
+    <t>(S) úterý</t>
+  </si>
+  <si>
+    <t>v (S) úterý</t>
+  </si>
+  <si>
+    <t>(M) večer</t>
+  </si>
+  <si>
+    <t>(Ž) velikost</t>
+  </si>
+  <si>
+    <t>Next word</t>
+  </si>
+  <si>
+    <t>(S) vepřové</t>
+  </si>
+  <si>
+    <t>(M) vepřový</t>
+  </si>
+  <si>
+    <t>(Ž) vepřová</t>
+  </si>
+  <si>
     <t>свиняче</t>
   </si>
   <si>
     <t>свиное</t>
   </si>
   <si>
-    <t>Я візьму це., Я куплю це.</t>
-  </si>
-  <si>
-    <t>Я возьму это., Я куплю это.</t>
-  </si>
-  <si>
-    <t>I'll take it.</t>
-  </si>
-  <si>
-    <t>vidět</t>
-  </si>
-  <si>
-    <t>бачити</t>
-  </si>
-  <si>
-    <t>видеть</t>
-  </si>
-  <si>
-    <t>to see</t>
-  </si>
-  <si>
-    <t>víkend</t>
-  </si>
-  <si>
-    <t>вихідні</t>
-  </si>
-  <si>
-    <t>выходные</t>
-  </si>
-  <si>
-    <t>weekend</t>
-  </si>
-  <si>
-    <t>o víkendu</t>
-  </si>
-  <si>
-    <t>на вихідних</t>
-  </si>
-  <si>
-    <t>на выходных</t>
-  </si>
-  <si>
-    <t>on the weekend</t>
-  </si>
-  <si>
-    <t>vlasy</t>
-  </si>
-  <si>
-    <t>волосся</t>
-  </si>
-  <si>
-    <t>волосы</t>
-  </si>
-  <si>
-    <t>hair</t>
-  </si>
-  <si>
-    <t>спереду, попереду</t>
-  </si>
-  <si>
-    <t>спереди, впереди</t>
-  </si>
-  <si>
-    <t>in front</t>
-  </si>
-  <si>
-    <t>вставати</t>
-  </si>
-  <si>
-    <t>вставать</t>
-  </si>
-  <si>
-    <t>to get up, to rise</t>
-  </si>
-  <si>
-    <t>To je všechno.</t>
-  </si>
-  <si>
-    <t>Це все.</t>
-  </si>
-  <si>
-    <t>Это все.</t>
-  </si>
-  <si>
-    <t>That's all.</t>
-  </si>
-  <si>
-    <t>vyslovovat</t>
-  </si>
-  <si>
-    <t>вимовляти</t>
-  </si>
-  <si>
-    <t>произносить</t>
-  </si>
-  <si>
-    <t>to pronounce</t>
-  </si>
-  <si>
-    <t>vyučování</t>
-  </si>
-  <si>
-    <t>навчання, уроки</t>
-  </si>
-  <si>
-    <t>обучение, уроки</t>
-  </si>
-  <si>
-    <t>lessons, schooling</t>
-  </si>
-  <si>
-    <t>ззаду, позаду</t>
-  </si>
-  <si>
-    <t>сзади, позади</t>
-  </si>
-  <si>
-    <t>in the back, behind</t>
-  </si>
-  <si>
-    <t>починати</t>
-  </si>
-  <si>
-    <t>начинать</t>
-  </si>
-  <si>
-    <t>to begin, to start</t>
-  </si>
-  <si>
-    <t>zákazník</t>
-  </si>
-  <si>
-    <t>клієнт, покупець</t>
-  </si>
-  <si>
-    <t>клиент, покупатель</t>
-  </si>
-  <si>
-    <t>customer (male)</t>
-  </si>
-  <si>
-    <t>zákaznice</t>
-  </si>
-  <si>
-    <t>клієнтка, покупчиня</t>
-  </si>
-  <si>
-    <t>клиентка, покупательница</t>
-  </si>
-  <si>
-    <t>customer (female)</t>
-  </si>
-  <si>
-    <t>заплатити, сплатити</t>
-  </si>
-  <si>
-    <t>заплатить, оплатить</t>
-  </si>
-  <si>
-    <t>to pay</t>
-  </si>
-  <si>
-    <t>zelený</t>
-  </si>
-  <si>
-    <t>зелений</t>
-  </si>
-  <si>
-    <t>зеленый</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>zelená</t>
-  </si>
-  <si>
-    <t>зелена</t>
-  </si>
-  <si>
-    <t>зеленая</t>
-  </si>
-  <si>
-    <t>zelené</t>
-  </si>
-  <si>
-    <t>зелене</t>
-  </si>
-  <si>
-    <t>зеленое</t>
-  </si>
-  <si>
-    <t>zkouška</t>
-  </si>
-  <si>
-    <t>іспит, спроба</t>
-  </si>
-  <si>
-    <t>экзамен, попытка</t>
-  </si>
-  <si>
-    <t>exam, test, try</t>
-  </si>
-  <si>
-    <t>zkusit</t>
-  </si>
-  <si>
-    <t>спробувати, випробувати</t>
-  </si>
-  <si>
-    <t>попробовать, испытать</t>
-  </si>
-  <si>
-    <t>to try, to test</t>
-  </si>
-  <si>
-    <t>zpráva</t>
-  </si>
-  <si>
-    <t>повідомлення, новина</t>
-  </si>
-  <si>
-    <t>сообщение, новость</t>
-  </si>
-  <si>
-    <t>message, news</t>
-  </si>
-  <si>
-    <t>zubní pasta</t>
-  </si>
-  <si>
-    <t>žlutý</t>
-  </si>
-  <si>
-    <t>жовтий</t>
-  </si>
-  <si>
-    <t>желтый</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>žlutá</t>
-  </si>
-  <si>
-    <t>жовта</t>
-  </si>
-  <si>
-    <t>желтая</t>
-  </si>
-  <si>
-    <t>žluté</t>
-  </si>
-  <si>
-    <t>жовте</t>
-  </si>
-  <si>
-    <t>желтое</t>
+    <t>(M) víkend</t>
+  </si>
+  <si>
+    <t>o (M) víkendu</t>
+  </si>
+  <si>
+    <t>(M-Pl) vlasy</t>
+  </si>
+  <si>
+    <t>(S) vyučování</t>
+  </si>
+  <si>
+    <t>(M) zákazník</t>
+  </si>
+  <si>
+    <t>(Ž) zákaznice</t>
+  </si>
+  <si>
+    <t>(M) zelený</t>
+  </si>
+  <si>
+    <t>(Ž) zelená</t>
+  </si>
+  <si>
+    <t>(S) zelené</t>
+  </si>
+  <si>
+    <t>(Ž) zkouška</t>
+  </si>
+  <si>
+    <t>(Ž) zpráva</t>
+  </si>
+  <si>
+    <t>(Ž) zubní pasta</t>
+  </si>
+  <si>
+    <t>(M) žlutý</t>
+  </si>
+  <si>
+    <t>(Ž) žlutá</t>
+  </si>
+  <si>
+    <t>(S) žluté</t>
   </si>
 </sst>
 </file>
@@ -2729,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,58 +2749,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>661</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>662</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>416</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>663</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>418</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>664</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>419</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,27 +2808,27 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>665</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>421</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>422</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,111 +2836,111 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>423</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>666</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>424</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>667</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>668</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>669</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>430</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>434</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>435</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>90</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>670</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>437</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>94</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2945,153 +2948,153 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>671</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>439</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>101</v>
+        <v>672</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>673</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>106</v>
+        <v>441</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>107</v>
+        <v>674</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>111</v>
+        <v>675</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>114</v>
+        <v>676</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>117</v>
+        <v>677</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>678</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>122</v>
+        <v>442</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>125</v>
+        <v>679</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>128</v>
+        <v>443</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>129</v>
+        <v>444</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>130</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3099,13 +3102,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>412</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>132</v>
+        <v>446</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>133</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3113,2648 +3116,2657 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>134</v>
+        <v>448</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>137</v>
+        <v>680</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>139</v>
+        <v>450</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>681</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>141</v>
+        <v>452</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>142</v>
+        <v>453</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>144</v>
+        <v>682</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>454</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>148</v>
+        <v>683</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>150</v>
+        <v>455</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>151</v>
+        <v>684</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>153</v>
+        <v>456</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>154</v>
+        <v>685</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>157</v>
+        <v>89</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>158</v>
+        <v>686</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>161</v>
+        <v>91</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>162</v>
+        <v>687</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>165</v>
+        <v>688</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>166</v>
+        <v>459</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>169</v>
+        <v>689</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>170</v>
+        <v>460</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>172</v>
+        <v>97</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>173</v>
+        <v>690</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>178</v>
+        <v>413</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>184</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>190</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>192</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>193</v>
+        <v>466</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>197</v>
+        <v>469</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>198</v>
+        <v>470</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>199</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>201</v>
+        <v>472</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>205</v>
+        <v>473</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>206</v>
+        <v>474</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>208</v>
+        <v>691</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>211</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>213</v>
+        <v>476</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>215</v>
+        <v>477</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>216</v>
+        <v>692</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>219</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>220</v>
+        <v>693</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>223</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>224</v>
+        <v>694</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>228</v>
+        <v>695</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>229</v>
+        <v>483</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>231</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>232</v>
+        <v>696</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>239</v>
+        <v>697</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>240</v>
+        <v>485</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>242</v>
+        <v>132</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>243</v>
+        <v>698</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>246</v>
+        <v>134</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>247</v>
+        <v>699</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>250</v>
+        <v>136</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>254</v>
+        <v>700</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>256</v>
+        <v>487</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>257</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>259</v>
+        <v>142</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>260</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>266</v>
+        <v>148</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>267</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>268</v>
+        <v>149</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>271</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>273</v>
+        <v>153</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>274</v>
+        <v>154</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>275</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="B67" s="2" t="s">
-        <v>279</v>
+        <v>492</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>280</v>
+        <v>493</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>281</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>282</v>
+        <v>701</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>285</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>286</v>
+        <v>702</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>287</v>
+        <v>159</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>288</v>
+        <v>496</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>292</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>293</v>
+        <v>703</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>295</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>296</v>
+        <v>704</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>297</v>
+        <v>166</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>298</v>
+        <v>166</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>299</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>300</v>
+        <v>705</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>301</v>
+        <v>498</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>302</v>
+        <v>499</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>304</v>
+        <v>706</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>306</v>
+        <v>169</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B76" s="2" t="s">
-        <v>311</v>
+        <v>502</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>312</v>
+        <v>503</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>313</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>314</v>
+        <v>707</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>315</v>
+        <v>505</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>315</v>
+        <v>506</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>316</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>317</v>
+        <v>708</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>318</v>
+        <v>507</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>319</v>
+        <v>508</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>320</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>321</v>
+        <v>709</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>323</v>
+        <v>175</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>325</v>
+        <v>177</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>326</v>
+        <v>509</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>327</v>
+        <v>510</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>330</v>
+        <v>511</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>332</v>
+        <v>512</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>333</v>
+        <v>710</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>334</v>
+        <v>514</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>335</v>
+        <v>180</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>336</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>337</v>
+        <v>711</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>338</v>
+        <v>515</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>339</v>
+        <v>182</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>336</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>340</v>
+        <v>712</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>342</v>
+        <v>183</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>336</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>343</v>
+        <v>713</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>345</v>
+        <v>185</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>347</v>
+        <v>517</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>349</v>
+        <v>518</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>350</v>
+        <v>520</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>352</v>
+        <v>521</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>353</v>
+        <v>187</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>355</v>
+        <v>188</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>356</v>
+        <v>714</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>357</v>
+        <v>524</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>359</v>
+        <v>525</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>362</v>
+        <v>190</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>363</v>
+        <v>528</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>364</v>
+        <v>529</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>365</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>366</v>
+        <v>715</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>367</v>
+        <v>192</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>368</v>
+        <v>193</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>369</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>370</v>
+        <v>716</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>371</v>
+        <v>530</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>372</v>
+        <v>195</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>374</v>
+        <v>531</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>376</v>
+        <v>533</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>377</v>
+        <v>197</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>378</v>
+        <v>198</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>379</v>
+        <v>199</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>380</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>381</v>
+        <v>201</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>382</v>
+        <v>202</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>383</v>
+        <v>203</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>384</v>
+        <v>534</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>385</v>
+        <v>717</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>386</v>
+        <v>535</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>387</v>
+        <v>204</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>389</v>
+        <v>718</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>390</v>
+        <v>537</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>391</v>
+        <v>205</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>392</v>
+        <v>538</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>393</v>
+        <v>719</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>394</v>
+        <v>206</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>395</v>
+        <v>207</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>396</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>397</v>
+        <v>720</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>398</v>
+        <v>539</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>399</v>
+        <v>540</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>400</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>401</v>
+        <v>721</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>402</v>
+        <v>210</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>403</v>
+        <v>211</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>405</v>
+        <v>541</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>407</v>
+        <v>542</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>408</v>
+        <v>722</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>409</v>
+        <v>213</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>410</v>
+        <v>214</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>411</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>412</v>
+        <v>723</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>413</v>
+        <v>216</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>414</v>
+        <v>217</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>415</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>416</v>
+        <v>724</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>417</v>
+        <v>544</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>418</v>
+        <v>219</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>419</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>420</v>
+        <v>725</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>421</v>
+        <v>221</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>422</v>
+        <v>222</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>423</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>424</v>
+        <v>726</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>426</v>
+        <v>545</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>427</v>
+        <v>546</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>428</v>
+        <v>727</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>429</v>
+        <v>225</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>430</v>
+        <v>226</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>431</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>432</v>
+        <v>728</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>433</v>
+        <v>547</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>434</v>
+        <v>228</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>435</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>436</v>
+        <v>729</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>437</v>
+        <v>230</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>438</v>
+        <v>231</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>439</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>440</v>
+        <v>730</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>441</v>
+        <v>548</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>442</v>
+        <v>233</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>444</v>
+        <v>235</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>445</v>
+        <v>549</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>446</v>
+        <v>550</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>447</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>448</v>
+        <v>237</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>449</v>
+        <v>238</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>451</v>
+        <v>240</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>452</v>
+        <v>551</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>453</v>
+        <v>552</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>454</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>455</v>
+        <v>731</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>456</v>
+        <v>554</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>457</v>
+        <v>555</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>458</v>
+        <v>557</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>460</v>
+        <v>241</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>461</v>
+        <v>732</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>462</v>
+        <v>242</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>463</v>
+        <v>243</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>465</v>
+        <v>245</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>466</v>
+        <v>559</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>468</v>
+        <v>560</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>469</v>
+        <v>733</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>470</v>
+        <v>246</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>471</v>
+        <v>562</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>472</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>473</v>
+        <v>734</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>474</v>
+        <v>248</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>475</v>
+        <v>563</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>476</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>216</v>
+        <v>692</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>219</v>
+        <v>480</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>220</v>
+        <v>693</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>223</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>477</v>
+        <v>735</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>478</v>
+        <v>564</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>311</v>
+        <v>502</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>312</v>
+        <v>503</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>313</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>481</v>
+        <v>736</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>482</v>
+        <v>566</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>483</v>
+        <v>251</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>484</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>485</v>
+        <v>737</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>486</v>
+        <v>253</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>486</v>
+        <v>253</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>487</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>488</v>
+        <v>568</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>489</v>
+        <v>254</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>490</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>491</v>
+        <v>738</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>492</v>
+        <v>256</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>493</v>
+        <v>257</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>494</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>495</v>
+        <v>739</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>496</v>
+        <v>259</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>496</v>
+        <v>259</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>497</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>498</v>
+        <v>740</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>499</v>
+        <v>261</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>501</v>
+        <v>262</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>502</v>
+        <v>263</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>503</v>
+        <v>264</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>505</v>
+        <v>266</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>506</v>
+        <v>267</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>507</v>
+        <v>268</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>508</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>509</v>
+        <v>741</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>510</v>
+        <v>270</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>511</v>
+        <v>271</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>512</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>513</v>
+        <v>742</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>515</v>
+        <v>273</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>516</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>517</v>
+        <v>275</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>518</v>
+        <v>276</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>519</v>
+        <v>277</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>520</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>521</v>
+        <v>279</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>522</v>
+        <v>571</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>523</v>
+        <v>571</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>524</v>
+        <v>743</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>525</v>
+        <v>280</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>526</v>
+        <v>573</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>527</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>528</v>
+        <v>744</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>529</v>
+        <v>282</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>531</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>532</v>
+        <v>745</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>534</v>
+        <v>284</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>535</v>
+        <v>576</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>536</v>
+        <v>746</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>538</v>
+        <v>285</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>540</v>
+        <v>286</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>542</v>
+        <v>287</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>543</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>544</v>
+        <v>289</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>545</v>
+        <v>290</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>546</v>
+        <v>291</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>547</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>548</v>
+        <v>293</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>549</v>
+        <v>294</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>551</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>552</v>
+        <v>296</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>553</v>
+        <v>297</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>555</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>556</v>
+        <v>299</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>557</v>
+        <v>300</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>559</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B147" s="2" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>566</v>
+        <v>747</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>567</v>
+        <v>305</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>568</v>
+        <v>306</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>569</v>
+        <v>307</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>570</v>
+        <v>748</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>572</v>
+        <v>308</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>573</v>
+        <v>309</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>574</v>
+        <v>749</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>576</v>
+        <v>311</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>577</v>
+        <v>312</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>578</v>
+        <v>750</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>579</v>
+        <v>314</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>579</v>
+        <v>314</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>578</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>580</v>
+        <v>751</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>582</v>
+        <v>315</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>583</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>584</v>
+        <v>752</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>586</v>
+        <v>317</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>587</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>588</v>
+        <v>753</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>589</v>
+        <v>319</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>589</v>
+        <v>319</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>590</v>
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>591</v>
+        <v>754</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>592</v>
+        <v>321</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>592</v>
+        <v>321</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>593</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>594</v>
+        <v>755</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>596</v>
+        <v>323</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>597</v>
+        <v>324</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>598</v>
+        <v>325</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>601</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>602</v>
+        <v>756</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>603</v>
+        <v>327</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>603</v>
+        <v>327</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>605</v>
+        <v>757</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>608</v>
+        <v>594</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>609</v>
+        <v>758</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>610</v>
+        <v>328</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>611</v>
+        <v>329</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>612</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>613</v>
+        <v>331</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>614</v>
+        <v>332</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>616</v>
+        <v>333</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>617</v>
+        <v>334</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>620</v>
+        <v>335</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>621</v>
+        <v>336</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>622</v>
+        <v>337</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>625</v>
+        <v>338</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>629</v>
+        <v>759</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>632</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>633</v>
+        <v>760</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>636</v>
+        <v>340</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>637</v>
+        <v>761</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>642</v>
+        <v>341</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>644</v>
+        <v>762</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>645</v>
+        <v>342</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>646</v>
+        <v>343</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>647</v>
+        <v>344</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>648</v>
+        <v>763</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>649</v>
+        <v>612</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>650</v>
+        <v>345</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>651</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>652</v>
+        <v>347</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>653</v>
+        <v>348</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>654</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>655</v>
+        <v>350</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>656</v>
+        <v>613</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>657</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>658</v>
+        <v>352</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>659</v>
+        <v>614</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>660</v>
+        <v>615</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>661</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>662</v>
+        <v>616</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>663</v>
+        <v>617</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>664</v>
+        <v>354</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>665</v>
+        <v>764</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>666</v>
+        <v>618</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>667</v>
+        <v>355</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>668</v>
+        <v>356</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>669</v>
+        <v>357</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>670</v>
+        <v>358</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>671</v>
+        <v>359</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>673</v>
+        <v>360</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>674</v>
+        <v>361</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>675</v>
+        <v>362</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>676</v>
+        <v>363</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>677</v>
+        <v>364</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>678</v>
+        <v>620</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>678</v>
+        <v>620</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>679</v>
+        <v>365</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>680</v>
+        <v>366</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>681</v>
+        <v>367</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>682</v>
+        <v>368</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>684</v>
+        <v>369</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>685</v>
+        <v>370</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>178</v>
+        <v>413</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>184</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>188</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>687</v>
+        <v>415</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>690</v>
+        <v>767</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>691</v>
+        <v>621</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>692</v>
+        <v>372</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>693</v>
+        <v>622</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>694</v>
+        <v>768</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>695</v>
+        <v>373</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>696</v>
+        <v>374</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>693</v>
+        <v>623</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>38</v>
+        <v>769</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>697</v>
+        <v>375</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>698</v>
+        <v>376</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>693</v>
+        <v>623</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>39</v>
+        <v>767</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>699</v>
+        <v>770</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>700</v>
+        <v>771</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>702</v>
+        <v>37</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>703</v>
+        <v>624</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>705</v>
+        <v>625</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>706</v>
+        <v>377</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>707</v>
+        <v>378</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>708</v>
+        <v>379</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>709</v>
+        <v>380</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>710</v>
+        <v>772</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>711</v>
+        <v>381</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>712</v>
+        <v>627</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>713</v>
+        <v>382</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>714</v>
+        <v>773</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>715</v>
+        <v>628</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>717</v>
+        <v>383</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>40</v>
+        <v>774</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>355</v>
+        <v>385</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>360</v>
+        <v>187</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>362</v>
+        <v>188</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>718</v>
+        <v>189</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>719</v>
+        <v>190</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>720</v>
+        <v>527</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>721</v>
+        <v>387</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>723</v>
+        <v>388</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>724</v>
+        <v>41</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>725</v>
+        <v>631</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>727</v>
+        <v>632</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>728</v>
+        <v>389</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>729</v>
+        <v>634</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>731</v>
+        <v>635</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>732</v>
+        <v>390</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>733</v>
+        <v>391</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>735</v>
+        <v>637</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>44</v>
+        <v>775</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>736</v>
+        <v>638</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>737</v>
+        <v>639</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>738</v>
+        <v>640</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>739</v>
+        <v>393</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>741</v>
+        <v>394</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>742</v>
+        <v>43</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>743</v>
+        <v>642</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>744</v>
+        <v>643</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>745</v>
+        <v>395</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>746</v>
+        <v>776</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>747</v>
+        <v>396</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>749</v>
+        <v>397</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>46</v>
+        <v>777</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>750</v>
+        <v>399</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>753</v>
+        <v>44</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>754</v>
+        <v>644</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>755</v>
+        <v>645</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>756</v>
+        <v>402</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>758</v>
+        <v>403</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>759</v>
+        <v>646</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>756</v>
+        <v>404</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>761</v>
+        <v>405</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>762</v>
+        <v>647</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>756</v>
+        <v>404</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>764</v>
+        <v>406</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>765</v>
+        <v>648</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>768</v>
+        <v>649</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>771</v>
+        <v>407</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>772</v>
+        <v>652</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>774</v>
+        <v>653</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>409</v>
+        <v>655</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>411</v>
+        <v>656</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>777</v>
+        <v>213</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>778</v>
+        <v>214</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>779</v>
+        <v>215</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>781</v>
+        <v>408</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>782</v>
+        <v>658</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>779</v>
+        <v>409</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>784</v>
+        <v>410</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>785</v>
+        <v>659</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>779</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>